--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkola\Documents\Schule\Seminararbeit\SKSoftware\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEDA58B-0A07-4BBE-B655-8B4823C12B1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperaturdaten" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,15 +91,1267 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Temperatur</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Temperaturdaten!$B$1:$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Temperaturdaten!$A$2:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>25.433007812500001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.083203125000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.083203125000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.915820312499999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.741015624999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.645703124999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.452929687500003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.147070312499999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.697070312500003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.267773437499997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.704882812500003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.350195312499999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.131640625000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.14453125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.460742187500003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.962109375000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.298828125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.031445312500001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.784765624999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.466015625000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.15234375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.9208984375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.591992187500001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.792382812500001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.792382812500001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.5869140625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.5869140625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.463476562499999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.293749999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.293749999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29.0830078125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.908203125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.759179687500001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28.5791015625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.5791015625</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28.450585937500001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28.296484374999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28.219335937499999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28.1884765625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.101171874999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.967382812499999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.802929687500001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.689843750000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.592187500000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.499609374999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27.427539062499999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27.340234375000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27.15</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.887890625000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26.836328125000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26.784960937499999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26.635937500000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26.579296875000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26.4970703125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26.4560546875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26.322265625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26.250390625000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>26.250390625000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>26.18359375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>26.18359375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26.091015625000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8F0-4CE4-9563-D13956458FE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="54094976"/>
+        <c:axId val="55356976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54094976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55356976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="55356976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54094976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FC067F-D966-4C22-864D-287A58A7DB10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -135,7 +1393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,9 +1425,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +1477,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,14 +1670,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,111 +1687,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>25.4330078125</v>
+        <v>25.433007812500001</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>27.083203125</v>
+        <v>27.083203125000001</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>27.083203125</v>
+        <v>27.083203125000001</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>29.9158203125</v>
+        <v>29.915820312499999</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>31.741015625</v>
+        <v>31.741015624999999</v>
       </c>
       <c r="B6">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>32.645703125</v>
+        <v>32.645703124999997</v>
       </c>
       <c r="B7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>33.4529296875</v>
+        <v>33.452929687500003</v>
       </c>
       <c r="B8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>34.1470703125</v>
+        <v>34.147070312499999</v>
       </c>
       <c r="B9">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>34.6970703125</v>
+        <v>34.697070312500003</v>
       </c>
       <c r="B10">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>35.2677734375</v>
+        <v>35.267773437499997</v>
       </c>
       <c r="B11">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>35.7048828125</v>
+        <v>35.704882812500003</v>
       </c>
       <c r="B12">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>35.3501953125</v>
+        <v>35.350195312499999</v>
       </c>
       <c r="B13">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>34.131640625</v>
+        <v>34.131640625000003</v>
       </c>
       <c r="B14">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>33.14453125</v>
       </c>
@@ -503,23 +1799,23 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>32.4607421875</v>
+        <v>32.460742187500003</v>
       </c>
       <c r="B16">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>31.962109375</v>
+        <v>31.962109375000001</v>
       </c>
       <c r="B17">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>31.298828125</v>
       </c>
@@ -527,31 +1823,31 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>31.0314453125</v>
+        <v>31.031445312500001</v>
       </c>
       <c r="B19">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>30.784765625</v>
+        <v>30.784765624999999</v>
       </c>
       <c r="B20">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>30.466015625</v>
+        <v>30.466015625000001</v>
       </c>
       <c r="B21">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>30.15234375</v>
       </c>
@@ -559,7 +1855,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29.9208984375</v>
       </c>
@@ -567,31 +1863,31 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>29.5919921875</v>
+        <v>29.591992187500001</v>
       </c>
       <c r="B24">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>29.7923828125</v>
+        <v>29.792382812500001</v>
       </c>
       <c r="B25">
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>29.7923828125</v>
+        <v>29.792382812500001</v>
       </c>
       <c r="B26">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>29.5869140625</v>
       </c>
@@ -599,7 +1895,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>29.5869140625</v>
       </c>
@@ -607,31 +1903,31 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29.4634765625</v>
+        <v>29.463476562499999</v>
       </c>
       <c r="B29">
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29.29375</v>
+        <v>29.293749999999999</v>
       </c>
       <c r="B30">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>29.29375</v>
+        <v>29.293749999999999</v>
       </c>
       <c r="B31">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29.0830078125</v>
       </c>
@@ -639,7 +1935,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>28.908203125</v>
       </c>
@@ -647,15 +1943,15 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>28.7591796875</v>
+        <v>28.759179687500001</v>
       </c>
       <c r="B34">
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>28.5791015625</v>
       </c>
@@ -663,7 +1959,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>28.5791015625</v>
       </c>
@@ -671,31 +1967,31 @@
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>28.4505859375</v>
+        <v>28.450585937500001</v>
       </c>
       <c r="B37">
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>28.296484375</v>
+        <v>28.296484374999999</v>
       </c>
       <c r="B38">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>28.2193359375</v>
+        <v>28.219335937499999</v>
       </c>
       <c r="B39">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>28.1884765625</v>
       </c>
@@ -703,71 +1999,71 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>28.101171875</v>
+        <v>28.101171874999999</v>
       </c>
       <c r="B41">
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>27.9673828125</v>
+        <v>27.967382812499999</v>
       </c>
       <c r="B42">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>27.8029296875</v>
+        <v>27.802929687500001</v>
       </c>
       <c r="B43">
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>27.68984375</v>
+        <v>27.689843750000001</v>
       </c>
       <c r="B44">
         <v>420</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>27.5921875</v>
+        <v>27.592187500000001</v>
       </c>
       <c r="B45">
         <v>430</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>27.499609375</v>
+        <v>27.499609374999999</v>
       </c>
       <c r="B46">
         <v>440</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>27.4275390625</v>
+        <v>27.427539062499999</v>
       </c>
       <c r="B47">
         <v>450</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>27.340234375</v>
+        <v>27.340234375000001</v>
       </c>
       <c r="B48">
         <v>460</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>27.15</v>
       </c>
@@ -775,47 +2071,47 @@
         <v>470</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>26.887890625</v>
+        <v>26.887890625000001</v>
       </c>
       <c r="B50">
         <v>480</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>26.836328125</v>
+        <v>26.836328125000001</v>
       </c>
       <c r="B51">
         <v>490</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>26.7849609375</v>
+        <v>26.784960937499999</v>
       </c>
       <c r="B52">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>26.6359375</v>
+        <v>26.635937500000001</v>
       </c>
       <c r="B53">
         <v>510</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>26.579296875</v>
+        <v>26.579296875000001</v>
       </c>
       <c r="B54">
         <v>520</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>26.4970703125</v>
       </c>
@@ -823,7 +2119,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>26.4560546875</v>
       </c>
@@ -831,7 +2127,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>26.322265625</v>
       </c>
@@ -839,23 +2135,23 @@
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>26.250390625</v>
+        <v>26.250390625000001</v>
       </c>
       <c r="B58">
         <v>560</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>26.250390625</v>
+        <v>26.250390625000001</v>
       </c>
       <c r="B59">
         <v>570</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>26.18359375</v>
       </c>
@@ -863,7 +2159,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>26.18359375</v>
       </c>
@@ -871,9 +2167,9 @@
         <v>590</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>26.091015625</v>
+        <v>26.091015625000001</v>
       </c>
       <c r="B62">
         <v>600</v>
@@ -881,5 +2177,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,32 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkola\Documents\Schule\Seminararbeit\SKSoftware\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E158C5B-9101-4470-9919-47F5FF32B9DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperaturdaten" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Temperature</t>
   </si>
   <si>
     <t>Time</t>
   </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>2MO</t>
+  </si>
+  <si>
+    <t>Laus</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,12 +61,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -78,22 +102,1771 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Temperaturdiagramm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Temperaturdaten!$B$2:$B$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Temperaturdaten!$A$2:$A$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>22.728906250000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.322656250000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.322656250000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.401953124999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.401953124999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0751953125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.391406249999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.059765624999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.671484374999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.2421875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.797460937499999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.352734374999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.594335937499999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.308984375000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.326953125000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.638085937500001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.877148437500001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.301367187499999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.756445312499999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.946679687500001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.946679687500001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.864453125000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.864453125000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.7255859375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.7255859375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.525195312499999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.2578125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.000781249999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.800195312500001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.574023437499999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.322070312499999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.322070312499999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.173046875000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.998242187500001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.998242187500001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.808007812500001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.7978515625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27.633203125000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.432812500000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27.314453125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.17578125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.031835937499999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26.887890625000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.743945312499999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26.615429687500001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26.522851562500001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.404492187500001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.332617187499999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.229882812500001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26.121874999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26.039648437499999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25.972851562500001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.859570312500001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>25.8134765625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25.746484375000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25.746484375000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25.643750000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25.643750000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.571679687500001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.525585937500001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25.525585937500001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25.4638671875</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25.4638671875</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.422656249999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.371289062500001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25.319921874999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25.319921874999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25.294140625000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25.242773437499999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25.175976562500001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25.140039062500001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25.062890625000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>25.062890625000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25.083398437500001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25.083398437500001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25.062890625000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25.026757812500001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>25.026757812500001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>24.990820312499999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>24.990820312499999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>24.954882812499999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>24.954882812499999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>24.913671874999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24.913671874999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24.888085937500001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>24.800585937499999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>24.800585937499999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24.7646484375</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>24.733789062500001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>24.718359374999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>24.708203125000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>24.708203125000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>24.708203125000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24.708203125000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>24.697851562499999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>24.6875</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24.6875</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24.672070312500001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>24.646484375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>24.646484375</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>24.636132812500001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>24.625781249999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>24.625781249999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>24.600195312499999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>24.58984375</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>24.584765624999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>24.595117187500001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>24.579687499999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>24.5693359375</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>24.533398437500001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>24.476757812500001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>24.466601562499999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>24.4150390625</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>24.409960937499999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>24.404882812499999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>24.368749999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>24.358593750000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>24.368749999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>24.358593750000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>24.322656250000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>24.3173828125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-127D-4443-9237-9AA3FE464358}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="870707487"/>
+        <c:axId val="874153071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="870707487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zeit in s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="874153071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="874153071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Temperatur in °C</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870707487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0206F490-06DF-4E25-ACFF-4E12C6E453C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -135,7 +1908,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,9 +1940,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +1992,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,14 +2185,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,79 +2202,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>22.72890625</v>
+        <v>22.728906250000001</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>24.32265625</v>
+        <v>24.322656250000001</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>24.32265625</v>
+        <v>24.322656250000001</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>27.401953125</v>
+        <v>27.401953124999999</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>27.401953125</v>
+        <v>27.401953124999999</v>
       </c>
       <c r="B6">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>30.0751953125</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>31.39140625</v>
+        <v>31.391406249999999</v>
       </c>
       <c r="B8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>32.059765625</v>
+        <v>32.059765624999997</v>
       </c>
       <c r="B9">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>32.671484375</v>
+        <v>32.671484374999999</v>
       </c>
       <c r="B10">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>33.2421875</v>
       </c>
@@ -471,111 +2285,120 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>33.7974609375</v>
+        <v>33.797460937499999</v>
       </c>
       <c r="B12">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>34.352734375</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>34.352734374999997</v>
+      </c>
+      <c r="B13" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>34.5943359375</v>
-      </c>
-      <c r="B14">
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>34.594335937499999</v>
+      </c>
+      <c r="B14" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>33.308984375</v>
+        <v>33.308984375000001</v>
       </c>
       <c r="B15">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>32.326953125</v>
+        <v>32.326953125000003</v>
       </c>
       <c r="B16">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>31.6380859375</v>
+        <v>31.638085937500001</v>
       </c>
       <c r="B17">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>30.8771484375</v>
+        <v>30.877148437500001</v>
       </c>
       <c r="B18">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>30.3013671875</v>
+        <v>30.301367187499999</v>
       </c>
       <c r="B19">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>29.7564453125</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>29.756445312499999</v>
+      </c>
+      <c r="B20" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>29.9466796875</v>
+        <v>29.946679687500001</v>
       </c>
       <c r="B21">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>29.9466796875</v>
+        <v>29.946679687500001</v>
       </c>
       <c r="B22">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>29.864453125</v>
+        <v>29.864453125000001</v>
       </c>
       <c r="B23">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>29.864453125</v>
+        <v>29.864453125000001</v>
       </c>
       <c r="B24">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>29.7255859375</v>
       </c>
@@ -583,7 +2406,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>29.7255859375</v>
       </c>
@@ -591,15 +2414,15 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>29.5251953125</v>
+        <v>29.525195312499999</v>
       </c>
       <c r="B27">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>29.2578125</v>
       </c>
@@ -607,79 +2430,79 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29.00078125</v>
+        <v>29.000781249999999</v>
       </c>
       <c r="B29">
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28.8001953125</v>
+        <v>28.800195312500001</v>
       </c>
       <c r="B30">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>28.5740234375</v>
+        <v>28.574023437499999</v>
       </c>
       <c r="B31">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>28.3220703125</v>
+        <v>28.322070312499999</v>
       </c>
       <c r="B32">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>28.3220703125</v>
+        <v>28.322070312499999</v>
       </c>
       <c r="B33">
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>28.173046875</v>
+        <v>28.173046875000001</v>
       </c>
       <c r="B34">
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>27.9982421875</v>
+        <v>27.998242187500001</v>
       </c>
       <c r="B35">
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>27.9982421875</v>
+        <v>27.998242187500001</v>
       </c>
       <c r="B36">
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>27.8080078125</v>
+        <v>27.808007812500001</v>
       </c>
       <c r="B37">
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>27.7978515625</v>
       </c>
@@ -687,23 +2510,23 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>27.633203125</v>
+        <v>27.633203125000001</v>
       </c>
       <c r="B39">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>27.4328125</v>
+        <v>27.432812500000001</v>
       </c>
       <c r="B40">
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>27.314453125</v>
       </c>
@@ -711,7 +2534,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>27.17578125</v>
       </c>
@@ -719,103 +2542,103 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>27.0318359375</v>
+        <v>27.031835937499999</v>
       </c>
       <c r="B43">
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>26.887890625</v>
+        <v>26.887890625000001</v>
       </c>
       <c r="B44">
         <v>420</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>26.7439453125</v>
+        <v>26.743945312499999</v>
       </c>
       <c r="B45">
         <v>430</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>26.6154296875</v>
+        <v>26.615429687500001</v>
       </c>
       <c r="B46">
         <v>440</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>26.5228515625</v>
+        <v>26.522851562500001</v>
       </c>
       <c r="B47">
         <v>450</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>26.4044921875</v>
+        <v>26.404492187500001</v>
       </c>
       <c r="B48">
         <v>460</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>26.3326171875</v>
+        <v>26.332617187499999</v>
       </c>
       <c r="B49">
         <v>470</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>26.2298828125</v>
+        <v>26.229882812500001</v>
       </c>
       <c r="B50">
         <v>480</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>26.121875</v>
+        <v>26.121874999999999</v>
       </c>
       <c r="B51">
         <v>490</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>26.0396484375</v>
+        <v>26.039648437499999</v>
       </c>
       <c r="B52">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>25.9728515625</v>
+        <v>25.972851562500001</v>
       </c>
       <c r="B53">
         <v>510</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>25.8595703125</v>
+        <v>25.859570312500001</v>
       </c>
       <c r="B54">
         <v>520</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>25.8134765625</v>
       </c>
@@ -823,63 +2646,63 @@
         <v>530</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>25.746484375</v>
+        <v>25.746484375000001</v>
       </c>
       <c r="B56">
         <v>540</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>25.746484375</v>
+        <v>25.746484375000001</v>
       </c>
       <c r="B57">
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>25.64375</v>
+        <v>25.643750000000001</v>
       </c>
       <c r="B58">
         <v>560</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>25.64375</v>
+        <v>25.643750000000001</v>
       </c>
       <c r="B59">
         <v>570</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>25.5716796875</v>
+        <v>25.571679687500001</v>
       </c>
       <c r="B60">
         <v>580</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>25.5255859375</v>
+        <v>25.525585937500001</v>
       </c>
       <c r="B61">
         <v>590</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>25.5255859375</v>
+        <v>25.525585937500001</v>
       </c>
       <c r="B62">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>25.4638671875</v>
       </c>
@@ -887,7 +2710,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>25.4638671875</v>
       </c>
@@ -895,199 +2718,202 @@
         <v>620</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>25.42265625</v>
+        <v>25.422656249999999</v>
       </c>
       <c r="B65">
         <v>630</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>25.3712890625</v>
+        <v>25.371289062500001</v>
       </c>
       <c r="B66">
         <v>640</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>25.319921875</v>
+        <v>25.319921874999999</v>
       </c>
       <c r="B67">
         <v>650</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>25.319921875</v>
+        <v>25.319921874999999</v>
       </c>
       <c r="B68">
         <v>660</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>25.294140625</v>
+        <v>25.294140625000001</v>
       </c>
       <c r="B69">
         <v>670</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>25.2427734375</v>
+        <v>25.242773437499999</v>
       </c>
       <c r="B70">
         <v>680</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>25.1759765625</v>
+        <v>25.175976562500001</v>
       </c>
       <c r="B71">
         <v>690</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>25.1400390625</v>
+        <v>25.140039062500001</v>
       </c>
       <c r="B72">
         <v>700</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>25.062890625</v>
+        <v>25.062890625000001</v>
       </c>
       <c r="B73">
         <v>710</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>25.062890625</v>
+        <v>25.062890625000001</v>
       </c>
       <c r="B74">
         <v>720</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>25.0833984375</v>
+        <v>25.083398437500001</v>
       </c>
       <c r="B75">
         <v>730</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>25.0833984375</v>
+        <v>25.083398437500001</v>
       </c>
       <c r="B76">
         <v>740</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>25.062890625</v>
+        <v>25.062890625000001</v>
       </c>
       <c r="B77">
         <v>750</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>25.0267578125</v>
+        <v>25.026757812500001</v>
       </c>
       <c r="B78">
         <v>760</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>25.0267578125</v>
+        <v>25.026757812500001</v>
       </c>
       <c r="B79">
         <v>770</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>24.9908203125</v>
-      </c>
-      <c r="B80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>24.990820312499999</v>
+      </c>
+      <c r="B80" s="2">
         <v>780</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>24.9908203125</v>
+        <v>24.990820312499999</v>
       </c>
       <c r="B81">
         <v>790</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>24.9548828125</v>
+        <v>24.954882812499999</v>
       </c>
       <c r="B82">
         <v>800</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>24.9548828125</v>
+        <v>24.954882812499999</v>
       </c>
       <c r="B83">
         <v>810</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>24.913671875</v>
+        <v>24.913671874999999</v>
       </c>
       <c r="B84">
         <v>820</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>24.913671875</v>
+        <v>24.913671874999999</v>
       </c>
       <c r="B85">
         <v>830</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>24.8880859375</v>
+        <v>24.888085937500001</v>
       </c>
       <c r="B86">
         <v>840</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>24.8005859375</v>
+        <v>24.800585937499999</v>
       </c>
       <c r="B87">
         <v>850</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>24.8005859375</v>
+        <v>24.800585937499999</v>
       </c>
       <c r="B88">
         <v>860</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>24.7646484375</v>
       </c>
@@ -1095,63 +2921,63 @@
         <v>870</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>24.7337890625</v>
+        <v>24.733789062500001</v>
       </c>
       <c r="B90">
         <v>880</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>24.718359375</v>
+        <v>24.718359374999999</v>
       </c>
       <c r="B91">
         <v>890</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>24.708203125</v>
+        <v>24.708203125000001</v>
       </c>
       <c r="B92">
         <v>900</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>24.708203125</v>
+        <v>24.708203125000001</v>
       </c>
       <c r="B93">
         <v>910</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>24.708203125</v>
+        <v>24.708203125000001</v>
       </c>
       <c r="B94">
         <v>920</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>24.708203125</v>
+        <v>24.708203125000001</v>
       </c>
       <c r="B95">
         <v>930</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>24.6978515625</v>
+        <v>24.697851562499999</v>
       </c>
       <c r="B96">
         <v>940</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>24.6875</v>
       </c>
@@ -1159,7 +2985,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>24.6875</v>
       </c>
@@ -1167,15 +2993,15 @@
         <v>960</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>24.6720703125</v>
+        <v>24.672070312500001</v>
       </c>
       <c r="B99">
         <v>970</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>24.646484375</v>
       </c>
@@ -1183,7 +3009,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>24.646484375</v>
       </c>
@@ -1191,39 +3017,39 @@
         <v>990</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>24.6361328125</v>
+        <v>24.636132812500001</v>
       </c>
       <c r="B102">
         <v>1000</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>24.62578125</v>
+        <v>24.625781249999999</v>
       </c>
       <c r="B103">
         <v>1010</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>24.62578125</v>
+        <v>24.625781249999999</v>
       </c>
       <c r="B104">
         <v>1020</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>24.6001953125</v>
+        <v>24.600195312499999</v>
       </c>
       <c r="B105">
         <v>1030</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>24.58984375</v>
       </c>
@@ -1231,31 +3057,31 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>24.584765625</v>
+        <v>24.584765624999999</v>
       </c>
       <c r="B107">
         <v>1050</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>24.5951171875</v>
+        <v>24.595117187500001</v>
       </c>
       <c r="B108">
         <v>1060</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>24.5796875</v>
+        <v>24.579687499999999</v>
       </c>
       <c r="B109">
         <v>1070</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>24.5693359375</v>
       </c>
@@ -1263,31 +3089,31 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>24.5333984375</v>
+        <v>24.533398437500001</v>
       </c>
       <c r="B111">
         <v>1090</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>24.4767578125</v>
+        <v>24.476757812500001</v>
       </c>
       <c r="B112">
         <v>1100</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>24.4666015625</v>
+        <v>24.466601562499999</v>
       </c>
       <c r="B113">
         <v>1110</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>24.4150390625</v>
       </c>
@@ -1295,63 +3121,63 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>24.4099609375</v>
+        <v>24.409960937499999</v>
       </c>
       <c r="B115">
         <v>1130</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>24.4048828125</v>
+        <v>24.404882812499999</v>
       </c>
       <c r="B116">
         <v>1140</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>24.36875</v>
+        <v>24.368749999999999</v>
       </c>
       <c r="B117">
         <v>1150</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>24.35859375</v>
+        <v>24.358593750000001</v>
       </c>
       <c r="B118">
         <v>1160</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>24.36875</v>
+        <v>24.368749999999999</v>
       </c>
       <c r="B119">
         <v>1170</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>24.35859375</v>
+        <v>24.358593750000001</v>
       </c>
       <c r="B120">
         <v>1180</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>24.32265625</v>
+        <v>24.322656250000001</v>
       </c>
       <c r="B121">
         <v>1190</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>24.3173828125</v>
       </c>
@@ -1361,5 +3187,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkola\Documents\Schule\Seminararbeit\SKSoftware\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AB2A89-4D8B-45ED-BDF8-8EAF35CD86EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temperaturdaten" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,12 +49,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -78,22 +90,2570 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Temperaturdiagramm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Temperatur unüberwacht</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Temperaturdaten!$B$2:$B$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Temperaturdaten!$A$2:$A$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>20.338671874999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.510546874999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.757031250000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.1474609375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.368359375000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.440234374999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.13671875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.033984375000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.7099609375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.370703124999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.830859375000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.679296874999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.329687499999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.908007812500003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.517187499999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.152148437500003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.802539062500003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.396289062500003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.943945312499999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.578906250000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.203515625000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.828320312499997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35.4375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.051953124999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.671484374999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.301367187499999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.946484374999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33.586718750000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33.231835937500001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.877148437499997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.54296875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.219140625000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31.890039062500001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.5712890625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31.267968750000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30.944140624999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30.65625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30.368359375000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.116406250000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29.818164062499999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.591992187500001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29.319531250000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>29.088085937500001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.882421874999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>28.651171874999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28.435156249999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28.234765625000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28.013671875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27.880078125000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.880078125000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27.648632812500001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.4892578125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27.324804687499999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.170507812499999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27.016406249999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26.841601562499999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26.702734374999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>26.569140624999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>26.440625000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>26.291406250000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26.126953125</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25.988085937499999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25.864843749999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.772265624999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.617968749999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25.5048828125</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25.4072265625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25.304492187499999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25.186132812499999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25.103906250000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25.011523437499999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24.908593750000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.846875000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24.728710937500001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24.6669921875</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>24.558984375000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>24.4921875</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>24.420312500000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>24.348242187499999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>24.2763671875</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>24.204296875000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>24.147851562500001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>24.050195312500001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>23.988476562500001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>23.942187499999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>23.885546874999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>23.823828124999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>23.767382812499999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>23.700585937500001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>23.659375000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>23.628515624999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>23.5771484375</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23.525781250000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>23.489843749999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>23.433203124999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.392187499999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>23.361328125</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>23.315039062499999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>23.279101562499999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>23.2275390625</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>23.196679687500001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>23.155664062500001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>23.201953124999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>23.165820312499999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>23.165820312499999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>23.078515625000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>23.042578124999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>23.01171875</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>22.985937499999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>22.955078125</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>22.9140625</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>22.888281249999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22.867773437499999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>22.841992187500001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>22.81640625</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>22.7802734375</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>22.754687499999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>22.744335937500001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>22.708398437500001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>22.703320312500001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>22.677539062499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57E8-4436-ADDB-A2DF93CFB9EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Temperatur überwacht</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Temperaturdaten!$E$2:$E$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Temperaturdaten!$D$2:$D$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>22.728906250000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.322656250000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.322656250000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.401953124999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.401953124999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0751953125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.391406249999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.059765624999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.671484374999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.2421875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.797460937499999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.352734374999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.594335937499999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.308984375000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.326953125000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.638085937500001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.877148437500001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.301367187499999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.756445312499999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.946679687500001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.946679687500001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.864453125000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.864453125000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.7255859375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.7255859375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.525195312499999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.2578125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.000781249999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.800195312500001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.574023437499999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.322070312499999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.322070312499999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.173046875000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.998242187500001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.998242187500001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.808007812500001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.7978515625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27.633203125000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.432812500000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27.314453125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.17578125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.031835937499999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26.887890625000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.743945312499999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26.615429687500001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26.522851562500001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.404492187500001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.332617187499999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.229882812500001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26.121874999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26.039648437499999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25.972851562500001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.859570312500001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>25.8134765625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25.746484375000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25.746484375000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25.643750000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25.643750000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.571679687500001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.525585937500001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25.525585937500001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25.4638671875</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25.4638671875</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.422656249999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.371289062500001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25.319921874999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25.319921874999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25.294140625000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25.242773437499999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25.175976562500001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25.140039062500001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25.062890625000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>25.062890625000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25.083398437500001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25.083398437500001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25.062890625000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25.026757812500001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>25.026757812500001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>24.990820312499999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>24.990820312499999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>24.954882812499999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>24.954882812499999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>24.913671874999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24.913671874999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24.888085937500001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>24.800585937499999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>24.800585937499999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24.7646484375</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>24.733789062500001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>24.718359374999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>24.708203125000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>24.708203125000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>24.708203125000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24.708203125000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>24.697851562499999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>24.6875</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24.6875</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24.672070312500001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>24.646484375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>24.646484375</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>24.636132812500001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>24.625781249999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>24.625781249999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>24.600195312499999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>24.58984375</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>24.584765624999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>24.595117187500001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>24.579687499999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>24.5693359375</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>24.533398437500001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>24.476757812500001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>24.466601562499999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>24.4150390625</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>24.409960937499999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>24.404882812499999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>24.368749999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>24.358593750000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>24.368749999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>24.358593750000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>24.322656250000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>24.3173828125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-57E8-4436-ADDB-A2DF93CFB9EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="294455776"/>
+        <c:axId val="416023408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="294455776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zeit in s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416023408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="416023408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Temperatur in °C</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294455776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>300318</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B07020-C50E-4C61-987C-12F9F59640DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -135,7 +2695,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,9 +2727,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +2779,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,14 +2972,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26:N27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,975 +2989,1702 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>20.338671875</v>
+        <v>20.338671874999999</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2">
+        <v>22.728906250000001</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>21.510546875</v>
+        <v>21.510546874999999</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3">
+        <v>24.322656250000001</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>23.75703125</v>
+        <v>23.757031250000001</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4">
+        <v>24.322656250000001</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>26.1474609375</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5">
+        <v>27.401953124999999</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>28.368359375</v>
+        <v>28.368359375000001</v>
       </c>
       <c r="B6">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6">
+        <v>27.401953124999999</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>30.440234375</v>
+        <v>30.440234374999999</v>
       </c>
       <c r="B7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" s="2">
+        <v>30.0751953125</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>32.13671875</v>
       </c>
       <c r="B8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8">
+        <v>31.391406249999999</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>34.033984375</v>
+        <v>34.033984375000003</v>
       </c>
       <c r="B9">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9">
+        <v>32.059765624999997</v>
+      </c>
+      <c r="E9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>35.7099609375</v>
       </c>
       <c r="B10">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10">
+        <v>32.671484374999999</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>37.370703125</v>
+        <v>37.370703124999999</v>
       </c>
       <c r="B11">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11">
+        <v>33.2421875</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>38.830859375</v>
+        <v>38.830859375000003</v>
       </c>
       <c r="B12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12">
+        <v>33.797460937499999</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>39.679296875</v>
+        <v>39.679296874999999</v>
       </c>
       <c r="B13">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13" s="2">
+        <v>34.352734374999997</v>
+      </c>
+      <c r="E13" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>39.3296875</v>
+        <v>39.329687499999999</v>
       </c>
       <c r="B14">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14" s="2">
+        <v>34.594335937499999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>38.9080078125</v>
+        <v>38.908007812500003</v>
       </c>
       <c r="B15">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15">
+        <v>33.308984375000001</v>
+      </c>
+      <c r="E15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>38.5171875</v>
+        <v>38.517187499999999</v>
       </c>
       <c r="B16">
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16">
+        <v>32.326953125000003</v>
+      </c>
+      <c r="E16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>38.1521484375</v>
+        <v>38.152148437500003</v>
       </c>
       <c r="B17">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17">
+        <v>31.638085937500001</v>
+      </c>
+      <c r="E17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>37.8025390625</v>
+        <v>37.802539062500003</v>
       </c>
       <c r="B18">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18">
+        <v>30.877148437500001</v>
+      </c>
+      <c r="E18">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>37.3962890625</v>
+        <v>37.396289062500003</v>
       </c>
       <c r="B19">
         <v>170</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19">
+        <v>30.301367187499999</v>
+      </c>
+      <c r="E19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>36.9439453125</v>
+        <v>36.943945312499999</v>
       </c>
       <c r="B20">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20" s="2">
+        <v>29.756445312499999</v>
+      </c>
+      <c r="E20" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>36.57890625</v>
+        <v>36.578906250000003</v>
       </c>
       <c r="B21">
         <v>190</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21">
+        <v>29.946679687500001</v>
+      </c>
+      <c r="E21">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>36.203515625</v>
+        <v>36.203515625000001</v>
       </c>
       <c r="B22">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22">
+        <v>29.946679687500001</v>
+      </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>35.8283203125</v>
+        <v>35.828320312499997</v>
       </c>
       <c r="B23">
         <v>210</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23">
+        <v>29.864453125000001</v>
+      </c>
+      <c r="E23">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>35.4375</v>
       </c>
       <c r="B24">
         <v>220</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24">
+        <v>29.864453125000001</v>
+      </c>
+      <c r="E24">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>35.051953125</v>
+        <v>35.051953124999997</v>
       </c>
       <c r="B25">
         <v>230</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25">
+        <v>29.7255859375</v>
+      </c>
+      <c r="E25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>34.671484375</v>
+        <v>34.671484374999999</v>
       </c>
       <c r="B26">
         <v>240</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="D26">
+        <v>29.7255859375</v>
+      </c>
+      <c r="E26">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>34.3013671875</v>
+        <v>34.301367187499999</v>
       </c>
       <c r="B27">
         <v>250</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27">
+        <v>29.525195312499999</v>
+      </c>
+      <c r="E27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>33.946484375</v>
+        <v>33.946484374999997</v>
       </c>
       <c r="B28">
         <v>260</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="D28">
+        <v>29.2578125</v>
+      </c>
+      <c r="E28">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>33.58671875</v>
+        <v>33.586718750000003</v>
       </c>
       <c r="B29">
         <v>270</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29">
+        <v>29.000781249999999</v>
+      </c>
+      <c r="E29">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>33.2318359375</v>
+        <v>33.231835937500001</v>
       </c>
       <c r="B30">
         <v>280</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="D30">
+        <v>28.800195312500001</v>
+      </c>
+      <c r="E30">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>32.8771484375</v>
+        <v>32.877148437499997</v>
       </c>
       <c r="B31">
         <v>290</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="D31">
+        <v>28.574023437499999</v>
+      </c>
+      <c r="E31">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32.54296875</v>
       </c>
       <c r="B32">
         <v>300</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="D32">
+        <v>28.322070312499999</v>
+      </c>
+      <c r="E32">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32.219140625</v>
+        <v>32.219140625000001</v>
       </c>
       <c r="B33">
         <v>310</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33">
+        <v>28.322070312499999</v>
+      </c>
+      <c r="E33">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>31.8900390625</v>
+        <v>31.890039062500001</v>
       </c>
       <c r="B34">
         <v>320</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="D34">
+        <v>28.173046875000001</v>
+      </c>
+      <c r="E34">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>31.5712890625</v>
       </c>
       <c r="B35">
         <v>330</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="D35">
+        <v>27.998242187500001</v>
+      </c>
+      <c r="E35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>31.26796875</v>
+        <v>31.267968750000001</v>
       </c>
       <c r="B36">
         <v>340</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="D36">
+        <v>27.998242187500001</v>
+      </c>
+      <c r="E36">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>30.944140625</v>
+        <v>30.944140624999999</v>
       </c>
       <c r="B37">
         <v>350</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="D37">
+        <v>27.808007812500001</v>
+      </c>
+      <c r="E37">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>30.65625</v>
       </c>
       <c r="B38">
         <v>360</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="D38">
+        <v>27.7978515625</v>
+      </c>
+      <c r="E38">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>30.368359375</v>
+        <v>30.368359375000001</v>
       </c>
       <c r="B39">
         <v>370</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="D39">
+        <v>27.633203125000001</v>
+      </c>
+      <c r="E39">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>30.11640625</v>
+        <v>30.116406250000001</v>
       </c>
       <c r="B40">
         <v>380</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="D40">
+        <v>27.432812500000001</v>
+      </c>
+      <c r="E40">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>29.8181640625</v>
+        <v>29.818164062499999</v>
       </c>
       <c r="B41">
         <v>390</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="D41">
+        <v>27.314453125</v>
+      </c>
+      <c r="E41">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>29.5919921875</v>
+        <v>29.591992187500001</v>
       </c>
       <c r="B42">
         <v>400</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="D42">
+        <v>27.17578125</v>
+      </c>
+      <c r="E42">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>29.31953125</v>
+        <v>29.319531250000001</v>
       </c>
       <c r="B43">
         <v>410</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="D43">
+        <v>27.031835937499999</v>
+      </c>
+      <c r="E43">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>29.0880859375</v>
+        <v>29.088085937500001</v>
       </c>
       <c r="B44">
         <v>420</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="D44">
+        <v>26.887890625000001</v>
+      </c>
+      <c r="E44">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>28.882421875</v>
+        <v>28.882421874999999</v>
       </c>
       <c r="B45">
         <v>430</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="D45">
+        <v>26.743945312499999</v>
+      </c>
+      <c r="E45">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>28.651171875</v>
+        <v>28.651171874999999</v>
       </c>
       <c r="B46">
         <v>440</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="D46">
+        <v>26.615429687500001</v>
+      </c>
+      <c r="E46">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>28.43515625</v>
+        <v>28.435156249999999</v>
       </c>
       <c r="B47">
         <v>450</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="D47">
+        <v>26.522851562500001</v>
+      </c>
+      <c r="E47">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>28.234765625</v>
+        <v>28.234765625000001</v>
       </c>
       <c r="B48">
         <v>460</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="D48">
+        <v>26.404492187500001</v>
+      </c>
+      <c r="E48">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>28.013671875</v>
       </c>
       <c r="B49">
         <v>470</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="D49">
+        <v>26.332617187499999</v>
+      </c>
+      <c r="E49">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>27.880078125</v>
+        <v>27.880078125000001</v>
       </c>
       <c r="B50">
         <v>480</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="D50">
+        <v>26.229882812500001</v>
+      </c>
+      <c r="E50">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>27.880078125</v>
+        <v>27.880078125000001</v>
       </c>
       <c r="B51">
         <v>490</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="D51">
+        <v>26.121874999999999</v>
+      </c>
+      <c r="E51">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>27.6486328125</v>
+        <v>27.648632812500001</v>
       </c>
       <c r="B52">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="D52">
+        <v>26.039648437499999</v>
+      </c>
+      <c r="E52">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>27.4892578125</v>
       </c>
       <c r="B53">
         <v>510</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="D53">
+        <v>25.972851562500001</v>
+      </c>
+      <c r="E53">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>27.3248046875</v>
+        <v>27.324804687499999</v>
       </c>
       <c r="B54">
         <v>520</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="D54">
+        <v>25.859570312500001</v>
+      </c>
+      <c r="E54">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>27.1705078125</v>
+        <v>27.170507812499999</v>
       </c>
       <c r="B55">
         <v>530</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="D55">
+        <v>25.8134765625</v>
+      </c>
+      <c r="E55">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>27.01640625</v>
+        <v>27.016406249999999</v>
       </c>
       <c r="B56">
         <v>540</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="D56">
+        <v>25.746484375000001</v>
+      </c>
+      <c r="E56">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>26.8416015625</v>
+        <v>26.841601562499999</v>
       </c>
       <c r="B57">
         <v>550</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="D57">
+        <v>25.746484375000001</v>
+      </c>
+      <c r="E57">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>26.702734375</v>
+        <v>26.702734374999999</v>
       </c>
       <c r="B58">
         <v>560</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="D58">
+        <v>25.643750000000001</v>
+      </c>
+      <c r="E58">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>26.569140625</v>
+        <v>26.569140624999999</v>
       </c>
       <c r="B59">
         <v>570</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="D59">
+        <v>25.643750000000001</v>
+      </c>
+      <c r="E59">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>26.440625</v>
+        <v>26.440625000000001</v>
       </c>
       <c r="B60">
         <v>580</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="D60">
+        <v>25.571679687500001</v>
+      </c>
+      <c r="E60">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>26.29140625</v>
+        <v>26.291406250000001</v>
       </c>
       <c r="B61">
         <v>590</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="D61">
+        <v>25.525585937500001</v>
+      </c>
+      <c r="E61">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>26.126953125</v>
       </c>
       <c r="B62">
         <v>600</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="D62">
+        <v>25.525585937500001</v>
+      </c>
+      <c r="E62">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>25.9880859375</v>
+        <v>25.988085937499999</v>
       </c>
       <c r="B63">
         <v>610</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="D63">
+        <v>25.4638671875</v>
+      </c>
+      <c r="E63">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>25.86484375</v>
+        <v>25.864843749999999</v>
       </c>
       <c r="B64">
         <v>620</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="D64">
+        <v>25.4638671875</v>
+      </c>
+      <c r="E64">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>25.772265625</v>
+        <v>25.772265624999999</v>
       </c>
       <c r="B65">
         <v>630</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="D65">
+        <v>25.422656249999999</v>
+      </c>
+      <c r="E65">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>25.61796875</v>
+        <v>25.617968749999999</v>
       </c>
       <c r="B66">
         <v>640</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="D66">
+        <v>25.371289062500001</v>
+      </c>
+      <c r="E66">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>25.5048828125</v>
       </c>
       <c r="B67">
         <v>650</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="D67">
+        <v>25.319921874999999</v>
+      </c>
+      <c r="E67">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>25.4072265625</v>
       </c>
       <c r="B68">
         <v>660</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="D68">
+        <v>25.319921874999999</v>
+      </c>
+      <c r="E68">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>25.3044921875</v>
+        <v>25.304492187499999</v>
       </c>
       <c r="B69">
         <v>670</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="D69">
+        <v>25.294140625000001</v>
+      </c>
+      <c r="E69">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>25.1861328125</v>
+        <v>25.186132812499999</v>
       </c>
       <c r="B70">
         <v>680</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="D70">
+        <v>25.242773437499999</v>
+      </c>
+      <c r="E70">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>25.10390625</v>
+        <v>25.103906250000001</v>
       </c>
       <c r="B71">
         <v>690</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="D71">
+        <v>25.175976562500001</v>
+      </c>
+      <c r="E71">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>25.0115234375</v>
+        <v>25.011523437499999</v>
       </c>
       <c r="B72">
         <v>700</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="D72">
+        <v>25.140039062500001</v>
+      </c>
+      <c r="E72">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>24.90859375</v>
+        <v>24.908593750000001</v>
       </c>
       <c r="B73">
         <v>710</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="D73">
+        <v>25.062890625000001</v>
+      </c>
+      <c r="E73">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>24.846875</v>
+        <v>24.846875000000001</v>
       </c>
       <c r="B74">
         <v>720</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="D74">
+        <v>25.062890625000001</v>
+      </c>
+      <c r="E74">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>24.7287109375</v>
+        <v>24.728710937500001</v>
       </c>
       <c r="B75">
         <v>730</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="D75">
+        <v>25.083398437500001</v>
+      </c>
+      <c r="E75">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>24.6669921875</v>
       </c>
       <c r="B76">
         <v>740</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="D76">
+        <v>25.083398437500001</v>
+      </c>
+      <c r="E76">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>24.558984375</v>
+        <v>24.558984375000001</v>
       </c>
       <c r="B77">
         <v>750</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="D77">
+        <v>25.062890625000001</v>
+      </c>
+      <c r="E77">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>24.4921875</v>
       </c>
       <c r="B78">
         <v>760</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="D78">
+        <v>25.026757812500001</v>
+      </c>
+      <c r="E78">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>24.4203125</v>
+        <v>24.420312500000001</v>
       </c>
       <c r="B79">
         <v>770</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="D79">
+        <v>25.026757812500001</v>
+      </c>
+      <c r="E79">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>24.3482421875</v>
+        <v>24.348242187499999</v>
       </c>
       <c r="B80">
         <v>780</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="D80" s="2">
+        <v>24.990820312499999</v>
+      </c>
+      <c r="E80" s="2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>24.2763671875</v>
       </c>
       <c r="B81">
         <v>790</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="D81">
+        <v>24.990820312499999</v>
+      </c>
+      <c r="E81">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>24.204296875</v>
+        <v>24.204296875000001</v>
       </c>
       <c r="B82">
         <v>800</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="D82">
+        <v>24.954882812499999</v>
+      </c>
+      <c r="E82">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>24.1478515625</v>
+        <v>24.147851562500001</v>
       </c>
       <c r="B83">
         <v>810</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="D83">
+        <v>24.954882812499999</v>
+      </c>
+      <c r="E83">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>24.0501953125</v>
+        <v>24.050195312500001</v>
       </c>
       <c r="B84">
         <v>820</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="D84">
+        <v>24.913671874999999</v>
+      </c>
+      <c r="E84">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>23.9884765625</v>
+        <v>23.988476562500001</v>
       </c>
       <c r="B85">
         <v>830</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="D85">
+        <v>24.913671874999999</v>
+      </c>
+      <c r="E85">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>23.9421875</v>
+        <v>23.942187499999999</v>
       </c>
       <c r="B86">
         <v>840</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="D86">
+        <v>24.888085937500001</v>
+      </c>
+      <c r="E86">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>23.885546875</v>
+        <v>23.885546874999999</v>
       </c>
       <c r="B87">
         <v>850</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="D87">
+        <v>24.800585937499999</v>
+      </c>
+      <c r="E87">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>23.823828125</v>
+        <v>23.823828124999999</v>
       </c>
       <c r="B88">
         <v>860</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="D88">
+        <v>24.800585937499999</v>
+      </c>
+      <c r="E88">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>23.7673828125</v>
+        <v>23.767382812499999</v>
       </c>
       <c r="B89">
         <v>870</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="D89">
+        <v>24.7646484375</v>
+      </c>
+      <c r="E89">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>23.7005859375</v>
+        <v>23.700585937500001</v>
       </c>
       <c r="B90">
         <v>880</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="D90">
+        <v>24.733789062500001</v>
+      </c>
+      <c r="E90">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>23.659375</v>
+        <v>23.659375000000001</v>
       </c>
       <c r="B91">
         <v>890</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="D91">
+        <v>24.718359374999999</v>
+      </c>
+      <c r="E91">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>23.628515625</v>
+        <v>23.628515624999999</v>
       </c>
       <c r="B92">
         <v>900</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="D92">
+        <v>24.708203125000001</v>
+      </c>
+      <c r="E92">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>23.5771484375</v>
       </c>
       <c r="B93">
         <v>910</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="D93">
+        <v>24.708203125000001</v>
+      </c>
+      <c r="E93">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>23.52578125</v>
+        <v>23.525781250000001</v>
       </c>
       <c r="B94">
         <v>920</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="D94">
+        <v>24.708203125000001</v>
+      </c>
+      <c r="E94">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>23.48984375</v>
+        <v>23.489843749999999</v>
       </c>
       <c r="B95">
         <v>930</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="D95">
+        <v>24.708203125000001</v>
+      </c>
+      <c r="E95">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>23.433203125</v>
+        <v>23.433203124999999</v>
       </c>
       <c r="B96">
         <v>940</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="D96">
+        <v>24.697851562499999</v>
+      </c>
+      <c r="E96">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>23.3921875</v>
+        <v>23.392187499999999</v>
       </c>
       <c r="B97">
         <v>950</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="D97">
+        <v>24.6875</v>
+      </c>
+      <c r="E97">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>23.361328125</v>
       </c>
       <c r="B98">
         <v>960</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="D98">
+        <v>24.6875</v>
+      </c>
+      <c r="E98">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>23.3150390625</v>
+        <v>23.315039062499999</v>
       </c>
       <c r="B99">
         <v>970</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="D99">
+        <v>24.672070312500001</v>
+      </c>
+      <c r="E99">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>23.2791015625</v>
+        <v>23.279101562499999</v>
       </c>
       <c r="B100">
         <v>980</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="D100">
+        <v>24.646484375</v>
+      </c>
+      <c r="E100">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>23.2275390625</v>
       </c>
       <c r="B101">
         <v>990</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="D101">
+        <v>24.646484375</v>
+      </c>
+      <c r="E101">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>23.1966796875</v>
+        <v>23.196679687500001</v>
       </c>
       <c r="B102">
         <v>1000</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="D102">
+        <v>24.636132812500001</v>
+      </c>
+      <c r="E102">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>23.1556640625</v>
+        <v>23.155664062500001</v>
       </c>
       <c r="B103">
         <v>1010</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="D103">
+        <v>24.625781249999999</v>
+      </c>
+      <c r="E103">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>23.201953125</v>
+        <v>23.201953124999999</v>
       </c>
       <c r="B104">
         <v>1020</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="D104">
+        <v>24.625781249999999</v>
+      </c>
+      <c r="E104">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>23.1658203125</v>
+        <v>23.165820312499999</v>
       </c>
       <c r="B105">
         <v>1030</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="D105">
+        <v>24.600195312499999</v>
+      </c>
+      <c r="E105">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>23.1658203125</v>
+        <v>23.165820312499999</v>
       </c>
       <c r="B106">
         <v>1040</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="D106">
+        <v>24.58984375</v>
+      </c>
+      <c r="E106">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>23.078515625</v>
+        <v>23.078515625000001</v>
       </c>
       <c r="B107">
         <v>1050</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="D107">
+        <v>24.584765624999999</v>
+      </c>
+      <c r="E107">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>23.042578125</v>
+        <v>23.042578124999999</v>
       </c>
       <c r="B108">
         <v>1060</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="D108">
+        <v>24.595117187500001</v>
+      </c>
+      <c r="E108">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>23.01171875</v>
       </c>
       <c r="B109">
         <v>1070</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="D109">
+        <v>24.579687499999999</v>
+      </c>
+      <c r="E109">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>22.9859375</v>
+        <v>22.985937499999999</v>
       </c>
       <c r="B110">
         <v>1080</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="D110">
+        <v>24.5693359375</v>
+      </c>
+      <c r="E110">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>22.955078125</v>
       </c>
       <c r="B111">
         <v>1090</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="D111">
+        <v>24.533398437500001</v>
+      </c>
+      <c r="E111">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>22.9140625</v>
       </c>
       <c r="B112">
         <v>1100</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="D112">
+        <v>24.476757812500001</v>
+      </c>
+      <c r="E112">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>22.88828125</v>
+        <v>22.888281249999999</v>
       </c>
       <c r="B113">
         <v>1110</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="D113">
+        <v>24.466601562499999</v>
+      </c>
+      <c r="E113">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>22.8677734375</v>
+        <v>22.867773437499999</v>
       </c>
       <c r="B114">
         <v>1120</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="D114">
+        <v>24.4150390625</v>
+      </c>
+      <c r="E114">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>22.8419921875</v>
+        <v>22.841992187500001</v>
       </c>
       <c r="B115">
         <v>1130</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="D115">
+        <v>24.409960937499999</v>
+      </c>
+      <c r="E115">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>22.81640625</v>
       </c>
       <c r="B116">
         <v>1140</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="D116">
+        <v>24.404882812499999</v>
+      </c>
+      <c r="E116">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>22.7802734375</v>
       </c>
       <c r="B117">
         <v>1150</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="D117">
+        <v>24.368749999999999</v>
+      </c>
+      <c r="E117">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>22.7546875</v>
+        <v>22.754687499999999</v>
       </c>
       <c r="B118">
         <v>1160</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="D118">
+        <v>24.358593750000001</v>
+      </c>
+      <c r="E118">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>22.7443359375</v>
+        <v>22.744335937500001</v>
       </c>
       <c r="B119">
         <v>1170</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="D119">
+        <v>24.368749999999999</v>
+      </c>
+      <c r="E119">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>22.7083984375</v>
+        <v>22.708398437500001</v>
       </c>
       <c r="B120">
         <v>1180</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="D120">
+        <v>24.358593750000001</v>
+      </c>
+      <c r="E120">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>22.7033203125</v>
+        <v>22.703320312500001</v>
       </c>
       <c r="B121">
         <v>1190</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="D121">
+        <v>24.322656250000001</v>
+      </c>
+      <c r="E121">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>22.6775390625</v>
+        <v>22.677539062499999</v>
       </c>
       <c r="B122">
         <v>1200</v>
       </c>
+      <c r="D122">
+        <v>24.3173828125</v>
+      </c>
+      <c r="E122">
+        <v>1200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>